--- a/BOM/Finalized City Mouse BOM.xlsx
+++ b/BOM/Finalized City Mouse BOM.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="59">
   <si>
     <t>Product Name</t>
   </si>
@@ -46,13 +46,19 @@
     <t>https://www.amazon.com/American-Gauge-Copper-Wire/dp/B0791B4ZRW/ref=sr_1_1_sspa?dib=eyJ2IjoiMSJ9.MZ0JquXSuCI-AZA9i6emmcCl8L-c-Z0iiS0ZdxFCqSM0hDcCy5f_iSJkg7gJqr_A0C7rmgNpsS6JZ8HQPdWkvWNvg7pGsQPhzA5WMBKkk3uQhOO5BjyDIPJUnR8Tb4HP7Dt29z_CDbsGS1MOq8opxkxf_jnZT4pFo7eSAG6mmLk6jqbfOHw-YI9gwlKJuhI7UdGW4FPQR6kcn6qvAoI0TJTVGAIgjWn23cC4gz2Ur-TbM9ZCyKlv60AtTahbsGE7sh4w0Q8cthBsFuVKBsS-WNKfG-0JNVyCd-aRfbs8wRA.6IFi6spKDZGGkVjo7wWOJ8ImAlPseegXPU8Mexmj2g8&amp;dib_tag=se&amp;hvadid=694985735723&amp;hvdev=c&amp;hvexpln=67&amp;hvlocphy=9004080&amp;hvnetw=g&amp;hvocijid=5327869387339383316--&amp;hvqmt=e&amp;hvrand=5327869387339383316&amp;hvtargid=kwd-339663422852&amp;hydadcr=24629_13611841&amp;keywords=20%2Bgauge%2B2%2Bconductor%2Bwire&amp;qid=1728051303&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
   </si>
   <si>
+    <t>4 Pin Headers</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/w%C3%BCrth-elektronik/61300411121/4846827?gclsrc=aw.ds&amp;&amp;utm_adgroup=&amp;utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=Pmax_Shopping_DK%2B%20Supplier_ITECH&amp;utm_term=&amp;utm_content=&amp;utm_id=go_cmp-21147141757_adg-_ad-__dev-c_ext-_prd-4846827_sig-CjwKCAiA9IC6BhA3EiwAsbltOAgQR-QaTprAplBTGN23p4JdKWU3xdTE4IiA_BCOuKTF2MOPqdCmnRoCtrIQAvD_BwE&amp;gad_source=1&amp;gclid=CjwKCAiA9IC6BhA3EiwAsbltOAgQR-QaTprAplBTGN23p4JdKWU3xdTE4IiA_BCOuKTF2MOPqdCmnRoCtrIQAvD_BwE&amp;gclsrc=aw.ds</t>
+  </si>
+  <si>
     <t>470 Ohm Resistor</t>
   </si>
   <si>
     <t>CF1/4C471J</t>
-  </si>
-  <si>
-    <t>N/A</t>
   </si>
   <si>
     <t>https://www.digikey.com/en/products/detail/koa-speer-electronics,-inc./CF1%2F4C471J/13537235?utm_adgroup=General&amp;utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=PMax%20Shopping_Product_Zombie%20SKUs&amp;utm_term=&amp;utm_content=General&amp;utm_id=go_cmp-17815035045_adg-_ad-__dev-c_ext-_prd-13537235_sig-Cj0KCQjwjNS3BhChARIsAOxBM6pdZWOkhexXrhcUmCtDRSBonp6of6M5_js4P4ElzA45IlZfCEqIjtQaAlmEEALw_wcB&amp;gad_source=1&amp;gclid=Cj0KCQjwjNS3BhChARIsAOxBM6pdZWOkhexXrhcUmCtDRSBonp6of6M5_js4P4ElzA45IlZfCEqIjtQaAlmEEALw_wcB</t>
@@ -332,16 +338,16 @@
     <xf borderId="1" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="1" fillId="2" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -709,23 +715,23 @@
       <c r="Z3" s="3"/>
     </row>
     <row r="4">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="5">
+        <v>6.1300411121E10</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>13</v>
-      </c>
       <c r="D4" s="5">
-        <v>4.0</v>
+        <v>10.0</v>
       </c>
       <c r="E4" s="14">
-        <v>0.72</v>
+        <v>1.63</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>14</v>
+      <c r="F4" s="15" t="s">
+        <v>13</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -750,19 +756,21 @@
     </row>
     <row r="5">
       <c r="A5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="11"/>
       <c r="C5" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" s="5">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
-      <c r="E5" s="5">
-        <v>18.99</v>
+      <c r="E5" s="16">
+        <v>0.72</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="9" t="s">
         <v>16</v>
       </c>
       <c r="G5" s="3"/>
@@ -787,22 +795,20 @@
       <c r="Z5" s="3"/>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="5">
-        <v>2217.0</v>
-      </c>
-      <c r="C6" s="15">
-        <v>45541.0</v>
+      <c r="B6" s="11"/>
+      <c r="C6" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="D6" s="5">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
-      <c r="E6" s="16">
-        <v>119.96</v>
+      <c r="E6" s="5">
+        <v>18.99</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="8" t="s">
         <v>18</v>
       </c>
       <c r="G6" s="3"/>
@@ -830,15 +836,17 @@
       <c r="A7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="15">
-        <v>45530.0</v>
+      <c r="B7" s="5">
+        <v>2217.0</v>
+      </c>
+      <c r="C7" s="17">
+        <v>45541.0</v>
       </c>
       <c r="D7" s="5">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
-      <c r="E7" s="16">
-        <v>39.99</v>
+      <c r="E7" s="14">
+        <v>119.96</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>20</v>
@@ -869,14 +877,14 @@
         <v>21</v>
       </c>
       <c r="B8" s="3"/>
-      <c r="C8" s="15">
-        <v>45545.0</v>
+      <c r="C8" s="17">
+        <v>45530.0</v>
       </c>
       <c r="D8" s="5">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
-      <c r="E8" s="16">
-        <v>39.96</v>
+      <c r="E8" s="14">
+        <v>39.99</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>22</v>
@@ -907,16 +915,16 @@
         <v>23</v>
       </c>
       <c r="B9" s="3"/>
-      <c r="C9" s="9" t="s">
-        <v>13</v>
+      <c r="C9" s="17">
+        <v>45545.0</v>
       </c>
       <c r="D9" s="5">
         <v>4.0</v>
       </c>
-      <c r="E9" s="16">
-        <v>51.96</v>
+      <c r="E9" s="14">
+        <v>39.96</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="5" t="s">
         <v>24</v>
       </c>
       <c r="G9" s="3"/>
@@ -946,15 +954,15 @@
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10" s="5">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
-      <c r="E10" s="16">
-        <v>4.98</v>
+      <c r="E10" s="14">
+        <v>51.96</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="15" t="s">
         <v>26</v>
       </c>
       <c r="G10" s="3"/>
@@ -984,15 +992,15 @@
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" s="5">
         <v>1.0</v>
       </c>
-      <c r="E11" s="16">
-        <v>14.99</v>
+      <c r="E11" s="14">
+        <v>4.98</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="15" t="s">
         <v>28</v>
       </c>
       <c r="G11" s="3"/>
@@ -1020,15 +1028,17 @@
       <c r="A12" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="D12" s="5">
         <v>1.0</v>
       </c>
-      <c r="E12" s="16">
-        <v>11.99</v>
+      <c r="E12" s="14">
+        <v>14.99</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="F12" s="18" t="s">
         <v>30</v>
       </c>
       <c r="G12" s="3"/>
@@ -1056,17 +1066,15 @@
       <c r="A13" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="B13" s="19"/>
+      <c r="C13" s="3"/>
       <c r="D13" s="5">
         <v>1.0</v>
       </c>
-      <c r="E13" s="16">
-        <v>9.99</v>
+      <c r="E13" s="14">
+        <v>11.99</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="F13" s="15" t="s">
         <v>32</v>
       </c>
       <c r="G13" s="3"/>
@@ -1095,16 +1103,16 @@
         <v>33</v>
       </c>
       <c r="B14" s="3"/>
-      <c r="C14" s="9" t="s">
-        <v>13</v>
+      <c r="C14" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="D14" s="5">
         <v>1.0</v>
       </c>
-      <c r="E14" s="16">
-        <v>5.98</v>
+      <c r="E14" s="14">
+        <v>9.99</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="15" t="s">
         <v>34</v>
       </c>
       <c r="G14" s="3"/>
@@ -1134,13 +1142,13 @@
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D15" s="5">
         <v>1.0</v>
       </c>
-      <c r="E15" s="16">
-        <v>9.99</v>
+      <c r="E15" s="14">
+        <v>5.98</v>
       </c>
       <c r="F15" s="18" t="s">
         <v>36</v>
@@ -1172,13 +1180,13 @@
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D16" s="5">
         <v>1.0</v>
       </c>
-      <c r="E16" s="16">
-        <v>11.99</v>
+      <c r="E16" s="14">
+        <v>9.99</v>
       </c>
       <c r="F16" s="18" t="s">
         <v>38</v>
@@ -1209,16 +1217,16 @@
         <v>39</v>
       </c>
       <c r="B17" s="3"/>
-      <c r="C17" s="15">
-        <v>45548.0</v>
+      <c r="C17" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="D17" s="5">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
-      <c r="E17" s="16">
-        <v>91.96</v>
+      <c r="E17" s="14">
+        <v>11.99</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="18" t="s">
         <v>40</v>
       </c>
       <c r="G17" s="3"/>
@@ -1243,20 +1251,20 @@
       <c r="Z17" s="3"/>
     </row>
     <row r="18">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="21"/>
-      <c r="C18" s="9" t="s">
-        <v>13</v>
+      <c r="B18" s="3"/>
+      <c r="C18" s="17">
+        <v>45548.0</v>
       </c>
-      <c r="D18" s="22">
-        <v>1.0</v>
+      <c r="D18" s="5">
+        <v>4.0</v>
       </c>
-      <c r="E18" s="16">
-        <v>11.86</v>
+      <c r="E18" s="14">
+        <v>91.96</v>
       </c>
-      <c r="F18" s="23" t="s">
+      <c r="F18" s="5" t="s">
         <v>42</v>
       </c>
       <c r="G18" s="3"/>
@@ -1281,20 +1289,20 @@
       <c r="Z18" s="3"/>
     </row>
     <row r="19">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="3"/>
+      <c r="B19" s="21"/>
       <c r="C19" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="22">
         <v>1.0</v>
       </c>
-      <c r="E19" s="16">
-        <v>9.99</v>
+      <c r="E19" s="14">
+        <v>11.86</v>
       </c>
-      <c r="F19" s="18" t="s">
+      <c r="F19" s="23" t="s">
         <v>44</v>
       </c>
       <c r="G19" s="3"/>
@@ -1319,20 +1327,20 @@
       <c r="Z19" s="3"/>
     </row>
     <row r="20">
-      <c r="A20" s="24" t="s">
+      <c r="A20" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="9"/>
+      <c r="B20" s="3"/>
       <c r="C20" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="5">
         <v>1.0</v>
       </c>
-      <c r="E20" s="12">
-        <v>8.95</v>
+      <c r="E20" s="14">
+        <v>9.99</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="18" t="s">
         <v>46</v>
       </c>
       <c r="G20" s="3"/>
@@ -1357,22 +1365,20 @@
       <c r="Z20" s="3"/>
     </row>
     <row r="21">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="5">
-        <v>3968.0</v>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9" t="s">
+        <v>12</v>
       </c>
-      <c r="C21" s="15">
-        <v>45562.0</v>
+      <c r="D21" s="11">
+        <v>1.0</v>
       </c>
-      <c r="D21" s="5">
-        <v>4.0</v>
+      <c r="E21" s="12">
+        <v>8.95</v>
       </c>
-      <c r="E21" s="16">
-        <v>19.8</v>
-      </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="8" t="s">
         <v>48</v>
       </c>
       <c r="G21" s="3"/>
@@ -1400,18 +1406,20 @@
       <c r="A22" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="5">
+        <v>3968.0</v>
+      </c>
+      <c r="C22" s="17">
+        <v>45562.0</v>
+      </c>
+      <c r="D22" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E22" s="14">
+        <v>19.8</v>
+      </c>
+      <c r="F22" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="5">
-        <v>10.0</v>
-      </c>
-      <c r="E22" s="16">
-        <v>5.99</v>
-      </c>
-      <c r="F22" s="17" t="s">
-        <v>51</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -1435,23 +1443,21 @@
       <c r="Z22" s="3"/>
     </row>
     <row r="23">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="C23" s="3"/>
+      <c r="D23" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="E23" s="14">
+        <v>5.99</v>
+      </c>
+      <c r="F23" s="15" t="s">
         <v>53</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="E23" s="7">
-        <v>3.37</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>54</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
@@ -1475,20 +1481,22 @@
       <c r="Z23" s="3"/>
     </row>
     <row r="24">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="15">
-        <v>45514.0</v>
+      <c r="C24" s="9" t="s">
+        <v>12</v>
       </c>
-      <c r="D24" s="5">
-        <v>10.0</v>
+      <c r="D24" s="11">
+        <v>1.0</v>
       </c>
-      <c r="E24" s="16">
-        <v>269.9</v>
+      <c r="E24" s="7">
+        <v>3.37</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="8" t="s">
         <v>56</v>
       </c>
       <c r="G24" s="3"/>
@@ -1513,32 +1521,42 @@
       <c r="Z24" s="3"/>
     </row>
     <row r="25">
-      <c r="A25" s="25"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="25"/>
-      <c r="M25" s="25"/>
-      <c r="N25" s="25"/>
-      <c r="O25" s="25"/>
-      <c r="P25" s="25"/>
-      <c r="Q25" s="25"/>
-      <c r="R25" s="25"/>
-      <c r="S25" s="25"/>
-      <c r="T25" s="25"/>
-      <c r="U25" s="25"/>
-      <c r="V25" s="25"/>
-      <c r="W25" s="25"/>
-      <c r="X25" s="25"/>
-      <c r="Y25" s="25"/>
-      <c r="Z25" s="25"/>
+      <c r="A25" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="17">
+        <v>45514.0</v>
+      </c>
+      <c r="D25" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="E25" s="14">
+        <v>269.9</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="3"/>
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="3"/>
     </row>
     <row r="26">
       <c r="A26" s="25"/>
@@ -28816,8 +28834,8 @@
   <hyperlinks>
     <hyperlink r:id="rId1" ref="F2"/>
     <hyperlink r:id="rId2" ref="F3"/>
-    <hyperlink r:id="rId3" ref="F5"/>
-    <hyperlink r:id="rId4" ref="F9"/>
+    <hyperlink r:id="rId3" ref="F4"/>
+    <hyperlink r:id="rId4" ref="F6"/>
     <hyperlink r:id="rId5" ref="F10"/>
     <hyperlink r:id="rId6" ref="F11"/>
     <hyperlink r:id="rId7" ref="F12"/>
@@ -28825,12 +28843,13 @@
     <hyperlink r:id="rId9" ref="F14"/>
     <hyperlink r:id="rId10" ref="F15"/>
     <hyperlink r:id="rId11" ref="F16"/>
-    <hyperlink r:id="rId12" ref="F18"/>
+    <hyperlink r:id="rId12" ref="F17"/>
     <hyperlink r:id="rId13" ref="F19"/>
     <hyperlink r:id="rId14" ref="F20"/>
-    <hyperlink r:id="rId15" ref="F22"/>
+    <hyperlink r:id="rId15" ref="F21"/>
     <hyperlink r:id="rId16" ref="F23"/>
+    <hyperlink r:id="rId17" ref="F24"/>
   </hyperlinks>
-  <drawing r:id="rId17"/>
+  <drawing r:id="rId18"/>
 </worksheet>
 </file>
--- a/BOM/Finalized City Mouse BOM.xlsx
+++ b/BOM/Finalized City Mouse BOM.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="57">
   <si>
     <t>Product Name</t>
   </si>
@@ -122,12 +122,6 @@
   </si>
   <si>
     <t>https://www.amazon.com/Ginsco-580-pcs-Assorted-Sleeving/dp/B01MFA3OFA/ref=sr_1_3?crid=38LJTLG31P11F&amp;dib=eyJ2IjoiMSJ9.afAtOFc0AWv7IewHnY-SsmFPIWDeFgvxv7nXELH8Q5pE7NEQQzI4j0SOVYTsq3Ar_JsFpEKQH5JQBgBxZsqWmWK5JOAxooYtfGKi6NTS0ffE4vl7gIVcPj0o_g8QWTEz4_TFyqjBXlnqPmc6L5EeDbeDeVx1-blvvlfxdErtrQPITVtXa25rXeJ5bfGB54IBImMAJCQfFAKV6Bv_u6EaIeecUMMSaGqQiCRYrWI08TA.kbk0WmiW8932JFnn1J5EeBKznpKsMMj-iX0AqcTJHwg&amp;dib_tag=se&amp;keywords=heat+shrink&amp;qid=1728051651&amp;sprefix=heat+shrink+%2Caps%2C76&amp;sr=8-3</t>
-  </si>
-  <si>
-    <t>Hot Glue Gun and Sticks</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Halobios-Compact-Storage-projects-Repairs/dp/B0CJV582CW/ref=sr_1_8?sr=8-8</t>
   </si>
   <si>
     <t>Jumper Wire Kit</t>
@@ -1186,7 +1180,7 @@
         <v>1.0</v>
       </c>
       <c r="E16" s="14">
-        <v>9.99</v>
+        <v>11.99</v>
       </c>
       <c r="F16" s="18" t="s">
         <v>38</v>
@@ -1217,16 +1211,16 @@
         <v>39</v>
       </c>
       <c r="B17" s="3"/>
-      <c r="C17" s="9" t="s">
-        <v>12</v>
+      <c r="C17" s="17">
+        <v>45548.0</v>
       </c>
       <c r="D17" s="5">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="E17" s="14">
-        <v>11.99</v>
+        <v>91.96</v>
       </c>
-      <c r="F17" s="18" t="s">
+      <c r="F17" s="5" t="s">
         <v>40</v>
       </c>
       <c r="G17" s="3"/>
@@ -1251,20 +1245,20 @@
       <c r="Z17" s="3"/>
     </row>
     <row r="18">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="17">
-        <v>45548.0</v>
+      <c r="B18" s="21"/>
+      <c r="C18" s="9" t="s">
+        <v>12</v>
       </c>
-      <c r="D18" s="5">
-        <v>4.0</v>
+      <c r="D18" s="22">
+        <v>1.0</v>
       </c>
       <c r="E18" s="14">
-        <v>91.96</v>
+        <v>11.86</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="23" t="s">
         <v>42</v>
       </c>
       <c r="G18" s="3"/>
@@ -1289,20 +1283,20 @@
       <c r="Z18" s="3"/>
     </row>
     <row r="19">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="21"/>
+      <c r="B19" s="3"/>
       <c r="C19" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="22">
+      <c r="D19" s="5">
         <v>1.0</v>
       </c>
       <c r="E19" s="14">
-        <v>11.86</v>
+        <v>9.99</v>
       </c>
-      <c r="F19" s="23" t="s">
+      <c r="F19" s="18" t="s">
         <v>44</v>
       </c>
       <c r="G19" s="3"/>
@@ -1327,20 +1321,20 @@
       <c r="Z19" s="3"/>
     </row>
     <row r="20">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="3"/>
+      <c r="B20" s="9"/>
       <c r="C20" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="11">
         <v>1.0</v>
       </c>
-      <c r="E20" s="14">
-        <v>9.99</v>
+      <c r="E20" s="12">
+        <v>8.95</v>
       </c>
-      <c r="F20" s="18" t="s">
+      <c r="F20" s="8" t="s">
         <v>46</v>
       </c>
       <c r="G20" s="3"/>
@@ -1365,20 +1359,22 @@
       <c r="Z20" s="3"/>
     </row>
     <row r="21">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9" t="s">
-        <v>12</v>
+      <c r="B21" s="5">
+        <v>3968.0</v>
       </c>
-      <c r="D21" s="11">
-        <v>1.0</v>
+      <c r="C21" s="17">
+        <v>45562.0</v>
       </c>
-      <c r="E21" s="12">
-        <v>8.95</v>
+      <c r="D21" s="5">
+        <v>4.0</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="E21" s="14">
+        <v>19.8</v>
+      </c>
+      <c r="F21" s="5" t="s">
         <v>48</v>
       </c>
       <c r="G21" s="3"/>
@@ -1406,20 +1402,18 @@
       <c r="A22" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="5">
-        <v>3968.0</v>
+      <c r="B22" s="5" t="s">
+        <v>50</v>
       </c>
-      <c r="C22" s="17">
-        <v>45562.0</v>
-      </c>
+      <c r="C22" s="3"/>
       <c r="D22" s="5">
-        <v>4.0</v>
+        <v>10.0</v>
       </c>
       <c r="E22" s="14">
-        <v>19.8</v>
+        <v>5.99</v>
       </c>
-      <c r="F22" s="5" t="s">
-        <v>50</v>
+      <c r="F22" s="15" t="s">
+        <v>51</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -1443,21 +1437,23 @@
       <c r="Z22" s="3"/>
     </row>
     <row r="23">
-      <c r="A23" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B23" s="5" t="s">
+      <c r="A23" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="5">
-        <v>10.0</v>
+      <c r="B23" s="9" t="s">
+        <v>53</v>
       </c>
-      <c r="E23" s="14">
-        <v>5.99</v>
+      <c r="C23" s="9" t="s">
+        <v>12</v>
       </c>
-      <c r="F23" s="15" t="s">
-        <v>53</v>
+      <c r="D23" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="E23" s="7">
+        <v>3.37</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
@@ -1481,22 +1477,20 @@
       <c r="Z23" s="3"/>
     </row>
     <row r="24">
-      <c r="A24" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" s="9" t="s">
+      <c r="A24" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C24" s="9" t="s">
-        <v>12</v>
+      <c r="B24" s="3"/>
+      <c r="C24" s="17">
+        <v>45514.0</v>
       </c>
-      <c r="D24" s="11">
-        <v>1.0</v>
+      <c r="D24" s="5">
+        <v>10.0</v>
       </c>
-      <c r="E24" s="7">
-        <v>3.37</v>
+      <c r="E24" s="14">
+        <v>269.9</v>
       </c>
-      <c r="F24" s="8" t="s">
+      <c r="F24" s="5" t="s">
         <v>56</v>
       </c>
       <c r="G24" s="3"/>
@@ -1521,42 +1515,32 @@
       <c r="Z24" s="3"/>
     </row>
     <row r="25">
-      <c r="A25" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="17">
-        <v>45514.0</v>
-      </c>
-      <c r="D25" s="5">
-        <v>10.0</v>
-      </c>
-      <c r="E25" s="14">
-        <v>269.9</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
-      <c r="S25" s="3"/>
-      <c r="T25" s="3"/>
-      <c r="U25" s="3"/>
-      <c r="V25" s="3"/>
-      <c r="W25" s="3"/>
-      <c r="X25" s="3"/>
-      <c r="Y25" s="3"/>
-      <c r="Z25" s="3"/>
+      <c r="A25" s="25"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="25"/>
+      <c r="O25" s="25"/>
+      <c r="P25" s="25"/>
+      <c r="Q25" s="25"/>
+      <c r="R25" s="25"/>
+      <c r="S25" s="25"/>
+      <c r="T25" s="25"/>
+      <c r="U25" s="25"/>
+      <c r="V25" s="25"/>
+      <c r="W25" s="25"/>
+      <c r="X25" s="25"/>
+      <c r="Y25" s="25"/>
+      <c r="Z25" s="25"/>
     </row>
     <row r="26">
       <c r="A26" s="25"/>
@@ -28802,34 +28786,6 @@
       <c r="Y998" s="25"/>
       <c r="Z998" s="25"/>
     </row>
-    <row r="999">
-      <c r="A999" s="25"/>
-      <c r="B999" s="25"/>
-      <c r="C999" s="25"/>
-      <c r="D999" s="26"/>
-      <c r="E999" s="27"/>
-      <c r="F999" s="25"/>
-      <c r="G999" s="25"/>
-      <c r="H999" s="25"/>
-      <c r="I999" s="25"/>
-      <c r="J999" s="25"/>
-      <c r="K999" s="25"/>
-      <c r="L999" s="25"/>
-      <c r="M999" s="25"/>
-      <c r="N999" s="25"/>
-      <c r="O999" s="25"/>
-      <c r="P999" s="25"/>
-      <c r="Q999" s="25"/>
-      <c r="R999" s="25"/>
-      <c r="S999" s="25"/>
-      <c r="T999" s="25"/>
-      <c r="U999" s="25"/>
-      <c r="V999" s="25"/>
-      <c r="W999" s="25"/>
-      <c r="X999" s="25"/>
-      <c r="Y999" s="25"/>
-      <c r="Z999" s="25"/>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="F2"/>
@@ -28843,13 +28799,12 @@
     <hyperlink r:id="rId9" ref="F14"/>
     <hyperlink r:id="rId10" ref="F15"/>
     <hyperlink r:id="rId11" ref="F16"/>
-    <hyperlink r:id="rId12" ref="F17"/>
+    <hyperlink r:id="rId12" ref="F18"/>
     <hyperlink r:id="rId13" ref="F19"/>
     <hyperlink r:id="rId14" ref="F20"/>
-    <hyperlink r:id="rId15" ref="F21"/>
+    <hyperlink r:id="rId15" ref="F22"/>
     <hyperlink r:id="rId16" ref="F23"/>
-    <hyperlink r:id="rId17" ref="F24"/>
   </hyperlinks>
-  <drawing r:id="rId18"/>
+  <drawing r:id="rId17"/>
 </worksheet>
 </file>